--- a/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D21837CE-8D87-4554-A331-D766AD543A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35156BFA-5C6D-4979-AAAD-F2D3F1423673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE799A4D-329C-4393-9AAD-E9E3715A030F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E712C2E-7345-4EB1-9096-D95BE3119C68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54587AA5-C8DE-4A4C-A9CD-3C0E484B40BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B1921D-F885-4F43-874F-34A091ACA469}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35156BFA-5C6D-4979-AAAD-F2D3F1423673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF11EB9-99AA-4B86-A179-7AA70B056F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E712C2E-7345-4EB1-9096-D95BE3119C68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2348E510-5510-4F39-8DD4-6CF7AC28F80D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>De 8 a 14 días al mes</t>
@@ -104,28 +104,28 @@
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>De 1 a 7 días al mes</t>
@@ -134,352 +134,361 @@
     <t>17,45%</t>
   </si>
   <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>80,05%</t>
@@ -488,25 +497,25 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>81,76%</t>
+    <t>81,61%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B1921D-F885-4F43-874F-34A091ACA469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3CE45D-98DD-4DF2-A1E3-EAC7C6A4ECF0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1565,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1574,13 +1583,13 @@
         <v>25886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -1589,13 +1598,13 @@
         <v>28440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1619,13 @@
         <v>17938</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -1846,13 +1855,13 @@
         <v>206444</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1876,13 @@
         <v>86055</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>311</v>
@@ -1882,13 +1891,13 @@
         <v>202061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -1897,13 +1906,13 @@
         <v>288116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1927,13 @@
         <v>546338</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1389</v>
@@ -1933,13 +1942,13 @@
         <v>1051167</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1939</v>
@@ -1948,13 +1957,13 @@
         <v>1597505</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1978,13 @@
         <v>2693162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>3400</v>
@@ -1984,13 +1993,13 @@
         <v>2363251</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>6068</v>
@@ -1999,13 +2008,13 @@
         <v>5056413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF11EB9-99AA-4B86-A179-7AA70B056F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D191335-140A-4F83-964A-4517829C1AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2348E510-5510-4F39-8DD4-6CF7AC28F80D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28108BBA-24EC-400D-A2CD-E2BDF46F7428}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>De 8 a 14 días al mes</t>
@@ -104,316 +104,316 @@
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,57%</t>
@@ -425,70 +425,61 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>6,03%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>80,05%</t>
@@ -497,25 +488,25 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>81,61%</t>
+    <t>81,76%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3CE45D-98DD-4DF2-A1E3-EAC7C6A4ECF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FCB71D-5202-4BAE-90E5-4E0662F198DC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1574,7 +1565,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1583,13 +1574,13 @@
         <v>25886</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -1598,13 +1589,13 @@
         <v>28440</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1610,13 @@
         <v>17938</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -1855,13 +1846,13 @@
         <v>206444</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1867,13 @@
         <v>86055</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>311</v>
@@ -1891,13 +1882,13 @@
         <v>202061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -1906,13 +1897,13 @@
         <v>288116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1918,13 @@
         <v>546338</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>1389</v>
@@ -1942,13 +1933,13 @@
         <v>1051167</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>1939</v>
@@ -1957,13 +1948,13 @@
         <v>1597505</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1969,13 @@
         <v>2693162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>3400</v>
@@ -1993,13 +1984,13 @@
         <v>2363251</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>6068</v>
@@ -2008,13 +1999,13 @@
         <v>5056413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D191335-140A-4F83-964A-4517829C1AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA81F3A-EF5C-47AE-AAB5-4013F38B06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28108BBA-24EC-400D-A2CD-E2BDF46F7428}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{173377ED-C368-4D8B-8FED-91C95677BE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -71,442 +71,448 @@
     <t>15 ó más días al mes</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FCB71D-5202-4BAE-90E5-4E0662F198DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED97FD9D-3949-44EF-B315-47BD3F433E95}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,7 +1048,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>10121</v>
+        <v>9686</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1057,7 +1063,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>52454</v>
+        <v>45992</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1072,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>62575</v>
+        <v>55678</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1093,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>15301</v>
+        <v>14572</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1108,7 +1114,7 @@
         <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>54180</v>
+        <v>50502</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1123,7 +1129,7 @@
         <v>116</v>
       </c>
       <c r="N5" s="7">
-        <v>69481</v>
+        <v>65074</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1144,7 +1150,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="7">
-        <v>94466</v>
+        <v>90152</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1159,7 +1165,7 @@
         <v>375</v>
       </c>
       <c r="I6" s="7">
-        <v>213967</v>
+        <v>196785</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1174,7 +1180,7 @@
         <v>498</v>
       </c>
       <c r="N6" s="7">
-        <v>308433</v>
+        <v>286937</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1195,7 +1201,7 @@
         <v>533</v>
       </c>
       <c r="D7" s="7">
-        <v>421385</v>
+        <v>400187</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1210,7 +1216,7 @@
         <v>874</v>
       </c>
       <c r="I7" s="7">
-        <v>510633</v>
+        <v>457868</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1225,7 +1231,7 @@
         <v>1407</v>
       </c>
       <c r="N7" s="7">
-        <v>932019</v>
+        <v>858054</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1246,7 +1252,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>541273</v>
+        <v>514597</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1261,7 +1267,7 @@
         <v>1418</v>
       </c>
       <c r="I8" s="7">
-        <v>831234</v>
+        <v>751147</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1276,7 +1282,7 @@
         <v>2108</v>
       </c>
       <c r="N8" s="7">
-        <v>1372508</v>
+        <v>1265744</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1299,7 +1305,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>26179</v>
+        <v>25372</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1314,7 +1320,7 @@
         <v>122</v>
       </c>
       <c r="I9" s="7">
-        <v>89249</v>
+        <v>81770</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1329,7 +1335,7 @@
         <v>148</v>
       </c>
       <c r="N9" s="7">
-        <v>115428</v>
+        <v>107142</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1350,7 +1356,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>52816</v>
+        <v>52297</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1365,7 +1371,7 @@
         <v>169</v>
       </c>
       <c r="I10" s="7">
-        <v>113002</v>
+        <v>105295</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1380,16 +1386,16 @@
         <v>222</v>
       </c>
       <c r="N10" s="7">
-        <v>165818</v>
+        <v>157592</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,46 +1407,46 @@
         <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>332484</v>
+        <v>325542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>755</v>
       </c>
       <c r="I11" s="7">
-        <v>648028</v>
+        <v>765452</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1074</v>
       </c>
       <c r="N11" s="7">
-        <v>980512</v>
+        <v>1090994</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,46 +1458,46 @@
         <v>1582</v>
       </c>
       <c r="D12" s="7">
-        <v>1739293</v>
+        <v>1876500</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1862</v>
       </c>
       <c r="I12" s="7">
-        <v>1390515</v>
+        <v>1277601</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>3444</v>
       </c>
       <c r="N12" s="7">
-        <v>3129807</v>
+        <v>3154101</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,7 +1509,7 @@
         <v>1980</v>
       </c>
       <c r="D13" s="7">
-        <v>2150772</v>
+        <v>2279710</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1518,7 +1524,7 @@
         <v>2908</v>
       </c>
       <c r="I13" s="7">
-        <v>2240795</v>
+        <v>2230118</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1533,7 +1539,7 @@
         <v>4888</v>
       </c>
       <c r="N13" s="7">
-        <v>4391566</v>
+        <v>4509828</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,46 +1562,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2554</v>
+        <v>2336</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>25886</v>
+        <v>23481</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>28440</v>
+        <v>25817</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,46 +1613,46 @@
         <v>17</v>
       </c>
       <c r="D15" s="7">
-        <v>17938</v>
+        <v>17910</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>34879</v>
+        <v>32845</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
       </c>
       <c r="N15" s="7">
-        <v>52817</v>
+        <v>50755</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,46 +1664,46 @@
         <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>119388</v>
+        <v>120071</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>259</v>
       </c>
       <c r="I16" s="7">
-        <v>189172</v>
+        <v>177959</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>367</v>
       </c>
       <c r="N16" s="7">
-        <v>308560</v>
+        <v>298030</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,46 +1715,46 @@
         <v>553</v>
       </c>
       <c r="D17" s="7">
-        <v>532485</v>
+        <v>505679</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>664</v>
       </c>
       <c r="I17" s="7">
-        <v>462102</v>
+        <v>424436</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1217</v>
       </c>
       <c r="N17" s="7">
-        <v>994587</v>
+        <v>930115</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1766,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>672366</v>
+        <v>645996</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1775,7 +1781,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>712039</v>
+        <v>658721</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1790,7 +1796,7 @@
         <v>1682</v>
       </c>
       <c r="N18" s="7">
-        <v>1384404</v>
+        <v>1304717</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1813,46 +1819,46 @@
         <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>228</v>
       </c>
       <c r="I19" s="7">
-        <v>167590</v>
+        <v>151244</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>270</v>
       </c>
       <c r="N19" s="7">
-        <v>206444</v>
+        <v>188637</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,46 +1870,46 @@
         <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>86055</v>
+        <v>84779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>311</v>
       </c>
       <c r="I20" s="7">
-        <v>202061</v>
+        <v>188642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
       </c>
       <c r="N20" s="7">
-        <v>288116</v>
+        <v>273422</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,46 +1921,46 @@
         <v>550</v>
       </c>
       <c r="D21" s="7">
-        <v>546338</v>
+        <v>535765</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1389</v>
       </c>
       <c r="I21" s="7">
-        <v>1051167</v>
+        <v>1140195</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>1939</v>
       </c>
       <c r="N21" s="7">
-        <v>1597505</v>
+        <v>1675960</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,46 +1972,46 @@
         <v>2668</v>
       </c>
       <c r="D22" s="7">
-        <v>2693162</v>
+        <v>2782366</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3400</v>
       </c>
       <c r="I22" s="7">
-        <v>2363251</v>
+        <v>2159904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>6068</v>
       </c>
       <c r="N22" s="7">
-        <v>5056413</v>
+        <v>4942270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2023,7 @@
         <v>3350</v>
       </c>
       <c r="D23" s="7">
-        <v>3364410</v>
+        <v>3440304</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2032,7 +2038,7 @@
         <v>5328</v>
       </c>
       <c r="I23" s="7">
-        <v>3784068</v>
+        <v>3639985</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2047,7 +2053,7 @@
         <v>8678</v>
       </c>
       <c r="N23" s="7">
-        <v>7148478</v>
+        <v>7080289</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
